--- a/biology/Mycologie/Rubroboletus_pulchrotinctus/Rubroboletus_pulchrotinctus.xlsx
+++ b/biology/Mycologie/Rubroboletus_pulchrotinctus/Rubroboletus_pulchrotinctus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet joli, Bolet à couleurs tendres, Bolet rose pastel
-Rubroboletus pulchrotinctus, le Bolet joli, anciennement Boletus pulchrotinctus, est une espèce toxique rare de champignons (Fungi) basidiomycètes du genre Rubroboletus dans la famille des Boletaceae. C'est une espèce menacée[1]. Il est caractérisé par son chapeau rosé et son pied et pores aux teintes jaunâtres rosées.
+Rubroboletus pulchrotinctus, le Bolet joli, anciennement Boletus pulchrotinctus, est une espèce toxique rare de champignons (Fungi) basidiomycètes du genre Rubroboletus dans la famille des Boletaceae. C'est une espèce menacée. Il est caractérisé par son chapeau rosé et son pied et pores aux teintes jaunâtres rosées.
 </t>
         </is>
       </c>
@@ -512,21 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rubroboletus pulchrotinctus (Alessio) Kuan Zhao &amp; Zhu L.Yang[2]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus pulchrotinctus Alessio[2].
-Synonymes
-Rubroboletus pulchrotinctus a pour synonymes[2] :
-Boletus pulchrotinctus (Alessio) Kuan Zhao &amp; Zhu L.Yang
-Boletus pulchrotinctus Alessio
-Suillellus pulchrotinctus (Alessio) Blanco-Dios
-Phylogénie
-Il a été initialement décrit dans le genre Boletus par le mycologue italien Carlo Luciano Alessio en 1985[3], mais a ensuite transféré au genre Rubroboletus par Zhao et ses collègues (2015), sur la base de preuves moléculaires[4]. Phylogénétiquement, Rubroboletus pulchrotinctus est l'espèce sœur de Rubroboletus satanas, plus connu, avec lequel il partage plusieurs caractéristiques morphologiques[5].
-Étymologie
-L'épithète spécifique provient du latin pulcher et tinctus, qui signifie « avec de belles teintures ».
-Noms vulgaires et vernaculaires
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet joli[6], Bolet a couleurs tendres, Bolet rose pastel[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rubroboletus pulchrotinctus (Alessio) Kuan Zhao &amp; Zhu L.Yang. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus pulchrotinctus Alessio.
 </t>
         </is>
       </c>
@@ -552,49 +555,238 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rubroboletus pulchrotinctus a pour synonymes :
+Boletus pulchrotinctus (Alessio) Kuan Zhao &amp; Zhu L.Yang
+Boletus pulchrotinctus Alessio
+Suillellus pulchrotinctus (Alessio) Blanco-Dios</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rubroboletus_pulchrotinctus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_pulchrotinctus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été initialement décrit dans le genre Boletus par le mycologue italien Carlo Luciano Alessio en 1985, mais a ensuite transféré au genre Rubroboletus par Zhao et ses collègues (2015), sur la base de preuves moléculaires. Phylogénétiquement, Rubroboletus pulchrotinctus est l'espèce sœur de Rubroboletus satanas, plus connu, avec lequel il partage plusieurs caractéristiques morphologiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rubroboletus_pulchrotinctus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_pulchrotinctus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique provient du latin pulcher et tinctus, qui signifie « avec de belles teintures ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rubroboletus_pulchrotinctus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_pulchrotinctus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet joli, Bolet a couleurs tendres, Bolet rose pastel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rubroboletus_pulchrotinctus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_pulchrotinctus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Rubroboletus pulchrotinctus sont les suivantes :
 Son chapeau mesure 20 cm, à l'aspect feutré puis glabre, de couleur rose lilas, gouaché vers la marge, plus grisâtre, ochracé pâle ou crème au disque.
 Son hyménophore présentes des pores jaunes à orange rougeâtre. Ses tubes sont de couleur jaune assez vif à orange, puis un peu vert bleuâtre en coupe.
 Le stipe mesure 13 x 5 cm, de couleur citron pâle, crème ou crème rosâtre, parfois ceinturé de lilas au milieu, avec un fin réseau concolore.
-La chair est de couleur jaunâtre, rose lilas sous le chapeau, bleuissant peu. Sa saveur est douce[7].
-Caractéristiques microscopiques
-Ses spores mesurent 12,5-14,5 x 5-6 µm, de forme allongée, fusoîde[7].
+La chair est de couleur jaunâtre, rose lilas sous le chapeau, bleuissant peu. Sa saveur est douce.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rubroboletus_pulchrotinctus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rubroboletus_pulchrotinctus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rubroboletus_pulchrotinctus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_pulchrotinctus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 12,5-14,5 x 5-6 µm, de forme allongée, fusoîde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rubroboletus_pulchrotinctus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_pulchrotinctus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un champignon ectomycorhizien, venant sous feuillus, à tendance calcicole et méditerranéen[7].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un champignon ectomycorhizien, venant sous feuillus, à tendance calcicole et méditerranéen.
 </t>
         </is>
       </c>
